--- a/.metadata/.plugins/org.eclipse.wst.server.core/tmp4/wtpwebapps/bpms/excel/返息客户明细报表模板.xlsx
+++ b/.metadata/.plugins/org.eclipse.wst.server.core/tmp4/wtpwebapps/bpms/excel/返息客户明细报表模板.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,10 +81,6 @@
     <t>/</t>
   </si>
   <si>
-    <t>年化收益率（%）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>利息总额（元）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -101,6 +97,14 @@
   </si>
   <si>
     <t>合同编号：全部                      客户姓名：全部                    理财产品：全部                      计息日期：全部                           到期日期：全部                                  查询日期：{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新的年化收益率（%）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原年化收益率（%）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -148,12 +152,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -201,40 +211,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -243,10 +253,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -548,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:P3"/>
+      <selection sqref="A1:Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -566,17 +576,18 @@
     <col min="8" max="8" width="15.875" customWidth="1"/>
     <col min="9" max="9" width="22.75" customWidth="1"/>
     <col min="10" max="10" width="15.125" customWidth="1"/>
-    <col min="11" max="11" width="15.25" customWidth="1"/>
-    <col min="12" max="12" width="23.375" customWidth="1"/>
-    <col min="13" max="13" width="19.375" customWidth="1"/>
-    <col min="14" max="14" width="19.25" customWidth="1"/>
-    <col min="15" max="15" width="17.75" customWidth="1"/>
-    <col min="16" max="16" width="19.25" customWidth="1"/>
+    <col min="11" max="11" width="18.375" customWidth="1"/>
+    <col min="12" max="12" width="21.625" customWidth="1"/>
+    <col min="13" max="13" width="23.375" customWidth="1"/>
+    <col min="14" max="14" width="19.375" customWidth="1"/>
+    <col min="15" max="15" width="19.25" customWidth="1"/>
+    <col min="16" max="16" width="17.75" customWidth="1"/>
+    <col min="17" max="17" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -593,8 +604,9 @@
       <c r="N1" s="15"/>
       <c r="O1" s="15"/>
       <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -611,10 +623,11 @@
       <c r="N2" s="15"/>
       <c r="O2" s="15"/>
       <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
     </row>
-    <row r="3" spans="1:16" ht="16.5" customHeight="1">
+    <row r="3" spans="1:17" ht="16.5" customHeight="1">
       <c r="A3" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -631,79 +644,84 @@
       <c r="N3" s="17"/>
       <c r="O3" s="17"/>
       <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
     </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:17">
+      <c r="A4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="N4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="O4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
+    <row r="5" spans="1:17">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:P2"/>
-    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A1:Q2"/>
+    <mergeCell ref="A3:Q3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -722,53 +740,53 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="12">
+      <c r="I1" s="11">
         <v>385000</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="12">
+      <c r="L1" s="11">
         <v>29220</v>
       </c>
-      <c r="M1" s="12" t="e">
+      <c r="M1" s="11" t="e">
         <f>#REF!+#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="11" t="s">
         <v>12</v>
       </c>
     </row>
